--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -763,7 +763,7 @@
     <t>Valve Gear</t>
   </si>
   <si>
-    <t>Valve Gear Case</t>
+    <t>Valve Gear?Case</t>
   </si>
   <si>
     <t>Vibaration Damper</t>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -763,7 +763,7 @@
     <t>Valve Gear</t>
   </si>
   <si>
-    <t>Valve Gear?Case</t>
+    <t>Valve Gear Case</t>
   </si>
   <si>
     <t>Vibaration Damper</t>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
@@ -13,6 +13,7 @@
     <sheet name="Group" sheetId="4" r:id="rId7"/>
     <sheet name="Location" sheetId="5" r:id="rId8"/>
     <sheet name="Warehouse" sheetId="6" r:id="rId9"/>
+    <sheet name="UOM" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>Item Description</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Subcat Prefix</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t>UOM ID</t>
   </si>
   <si>
     <t>PN No</t>
@@ -55,10 +56,10 @@
     <t>Instructions:</t>
   </si>
   <si>
-    <t>Get Cat ID, Subcat CatID and Subcat Prefix in the reference sheet</t>
-  </si>
-  <si>
-    <t>Leave PN No. column blank if there's none, system will generate if empty</t>
+    <t>Get Cat ID, Subcat ID, Subcat Prefix, UOM ID, Rack ID, Group ID, WH ID and Location ID in the reference sheet</t>
+  </si>
+  <si>
+    <t>Leave PN No. column blank if there's none, system will generate pn no. if empty</t>
   </si>
   <si>
     <t>Cat/Subcat ID</t>
@@ -830,6 +831,105 @@
   </si>
   <si>
     <t>CV Access Area Bay 2</t>
+  </si>
+  <si>
+    <t>UOM Name</t>
+  </si>
+  <si>
+    <t>bag/s</t>
+  </si>
+  <si>
+    <t>bar/s</t>
+  </si>
+  <si>
+    <t>bot/s</t>
+  </si>
+  <si>
+    <t>box/s</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>cart/s</t>
+  </si>
+  <si>
+    <t>cont/s</t>
+  </si>
+  <si>
+    <t>cu.m</t>
+  </si>
+  <si>
+    <t>cyl/s</t>
+  </si>
+  <si>
+    <t>drum/s</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>lgth/s</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>mtr/s</t>
+  </si>
+  <si>
+    <t>pack/s</t>
+  </si>
+  <si>
+    <t>pad/s</t>
+  </si>
+  <si>
+    <t>pail/s</t>
+  </si>
+  <si>
+    <t>pair/s</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>ream/s</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>sack/s</t>
+  </si>
+  <si>
+    <t>set/s</t>
+  </si>
+  <si>
+    <t>sht/s</t>
+  </si>
+  <si>
+    <t>tab/s</t>
+  </si>
+  <si>
+    <t>tube/s</t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t>grm/s</t>
+  </si>
+  <si>
+    <t>assy/s</t>
+  </si>
+  <si>
+    <t>lot/s</t>
   </si>
 </sst>
 </file>
@@ -3191,6 +3291,75 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -3199,10 +3368,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3210,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3218,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3226,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3234,7 +3403,231 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
@@ -13,6 +13,7 @@
     <sheet name="Group" sheetId="4" r:id="rId7"/>
     <sheet name="Location" sheetId="5" r:id="rId8"/>
     <sheet name="Warehouse" sheetId="6" r:id="rId9"/>
+    <sheet name="UOM" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t>Item Description</t>
   </si>
@@ -34,7 +35,7 @@
     <t>Subcat Prefix</t>
   </si>
   <si>
-    <t>Unit</t>
+    <t>UOM ID</t>
   </si>
   <si>
     <t>PN No</t>
@@ -55,10 +56,10 @@
     <t>Instructions:</t>
   </si>
   <si>
-    <t>Get Cat ID, Subcat CatID and Subcat Prefix in the reference sheet</t>
-  </si>
-  <si>
-    <t>Leave PN No. column blank if there's none, system will generate if empty</t>
+    <t>Get Cat ID, Subcat ID, Subcat Prefix, UOM ID, Rack ID, Group ID, WH ID and Location ID in the reference sheet</t>
+  </si>
+  <si>
+    <t>Leave PN No. column blank if there's none, system will generate pn no. if empty</t>
   </si>
   <si>
     <t>Cat/Subcat ID</t>
@@ -154,6 +155,33 @@
     <t>Others</t>
   </si>
   <si>
+    <t>Electrical and Mechanical</t>
+  </si>
+  <si>
+    <t>CON-ELM</t>
+  </si>
+  <si>
+    <t>Operation Consumables</t>
+  </si>
+  <si>
+    <t>CON-OPC</t>
+  </si>
+  <si>
+    <t>Mechanical Consumables</t>
+  </si>
+  <si>
+    <t>CON-MEC</t>
+  </si>
+  <si>
+    <t>Electrical Consumables</t>
+  </si>
+  <si>
+    <t>CON-ELE</t>
+  </si>
+  <si>
+    <t>Electrical and Mechanical Consumables</t>
+  </si>
+  <si>
     <t>Automotive Parts and Accessories</t>
   </si>
   <si>
@@ -307,6 +335,12 @@
     <t>FFE-UNI</t>
   </si>
   <si>
+    <t>Computer Equipment</t>
+  </si>
+  <si>
+    <t>COM-EQ</t>
+  </si>
+  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -334,205 +368,37 @@
     <t>TOO-STO</t>
   </si>
   <si>
+    <t>Spare Parts</t>
+  </si>
+  <si>
+    <t>Mechanical Spare Parts</t>
+  </si>
+  <si>
+    <t>SPP-MEC</t>
+  </si>
+  <si>
+    <t>Chemical Spare Parts</t>
+  </si>
+  <si>
+    <t>SPP-CHE</t>
+  </si>
+  <si>
+    <t>Electrical Spare Parts</t>
+  </si>
+  <si>
+    <t>SPP-ELC</t>
+  </si>
+  <si>
     <t>Rack Name</t>
   </si>
   <si>
-    <t>Rack - A1</t>
-  </si>
-  <si>
-    <t>Rack - A2</t>
-  </si>
-  <si>
-    <t>Rack - A3</t>
-  </si>
-  <si>
-    <t>Rack - A4</t>
-  </si>
-  <si>
-    <t>Rack - B1</t>
-  </si>
-  <si>
-    <t>Rack - B2</t>
-  </si>
-  <si>
-    <t>Rack - B3</t>
-  </si>
-  <si>
-    <t>Rack - B4</t>
-  </si>
-  <si>
-    <t>Rack - C1</t>
-  </si>
-  <si>
-    <t>Rack - C2</t>
-  </si>
-  <si>
-    <t>Rack - C3</t>
-  </si>
-  <si>
-    <t>Rack - C4</t>
-  </si>
-  <si>
-    <t>Rack - D1</t>
-  </si>
-  <si>
-    <t>Rack - D2</t>
-  </si>
-  <si>
-    <t>Rack - D3</t>
-  </si>
-  <si>
-    <t>Rack - E1</t>
-  </si>
-  <si>
-    <t>Rack - E2</t>
-  </si>
-  <si>
-    <t>Rack - E3</t>
-  </si>
-  <si>
-    <t>Rack - E4</t>
-  </si>
-  <si>
-    <t>Rack - F1</t>
-  </si>
-  <si>
-    <t>Rack - F2</t>
-  </si>
-  <si>
-    <t>Rack - F3</t>
-  </si>
-  <si>
-    <t>Rack - G1</t>
-  </si>
-  <si>
-    <t>Rack - G2</t>
-  </si>
-  <si>
-    <t>Rack - G3</t>
-  </si>
-  <si>
-    <t>Rack - H1</t>
-  </si>
-  <si>
-    <t>Rack - H2</t>
-  </si>
-  <si>
-    <t>Rack - H3</t>
-  </si>
-  <si>
-    <t>Rack - I1</t>
-  </si>
-  <si>
-    <t>Rack - I2</t>
-  </si>
-  <si>
-    <t>Rack - I3</t>
-  </si>
-  <si>
-    <t>Rack - J1</t>
-  </si>
-  <si>
-    <t>Rack - J2</t>
-  </si>
-  <si>
-    <t>Rack - J3</t>
-  </si>
-  <si>
-    <t>Rack - K1</t>
-  </si>
-  <si>
-    <t>Rack - K2</t>
-  </si>
-  <si>
-    <t>Rack - K3</t>
-  </si>
-  <si>
-    <t>Rack - K4</t>
-  </si>
-  <si>
-    <t>Rack - L1</t>
-  </si>
-  <si>
-    <t>Rack - L2</t>
-  </si>
-  <si>
-    <t>Rack - M1</t>
-  </si>
-  <si>
-    <t>Rack - M2</t>
-  </si>
-  <si>
-    <t>Rack - M3</t>
-  </si>
-  <si>
-    <t>Rack - M4</t>
-  </si>
-  <si>
-    <t>Rack - M5</t>
-  </si>
-  <si>
-    <t>Rack - N1</t>
-  </si>
-  <si>
-    <t>Rack - N2</t>
-  </si>
-  <si>
-    <t>Rack - N3</t>
-  </si>
-  <si>
-    <t>Rack - N4</t>
-  </si>
-  <si>
-    <t>Rack - O1</t>
-  </si>
-  <si>
-    <t>Rack - O2</t>
-  </si>
-  <si>
-    <t>Rack - O3</t>
-  </si>
-  <si>
-    <t>Rack - P1</t>
-  </si>
-  <si>
-    <t>Rack - P2</t>
-  </si>
-  <si>
-    <t>Rack - P3</t>
-  </si>
-  <si>
-    <t>Rack - Q1</t>
-  </si>
-  <si>
-    <t>Rack - Q2</t>
-  </si>
-  <si>
-    <t>Rack - Q3</t>
-  </si>
-  <si>
-    <t>Rack - Q4</t>
-  </si>
-  <si>
-    <t>Rack - Q5</t>
-  </si>
-  <si>
-    <t>Rack - R1</t>
-  </si>
-  <si>
-    <t>Rack - R2</t>
-  </si>
-  <si>
-    <t>Rack - R3</t>
-  </si>
-  <si>
     <t>Group Name</t>
   </si>
   <si>
-    <t>Air Branches for Cylinder Cove</t>
-  </si>
-  <si>
-    <t>Automatic Starting-Air Stop VA</t>
+    <t>Air Branches for Cylinder Cover</t>
+  </si>
+  <si>
+    <t>Automatic Starting-Air Stop Valve</t>
   </si>
   <si>
     <t>Auxiliary Driving Apparatus</t>
@@ -544,7 +410,7 @@
     <t>Barring Gear (On Right Side)</t>
   </si>
   <si>
-    <t>Bearing Casing for Cylinder CO</t>
+    <t>Bearing Casing for Cylinder Cover</t>
   </si>
   <si>
     <t>Cam Case Cover</t>
@@ -595,7 +461,7 @@
     <t>Cylinder Liner</t>
   </si>
   <si>
-    <t>Cylinder Lubricating Pump Driv</t>
+    <t>Cylinder Lubricating Pump Drive</t>
   </si>
   <si>
     <t>Engine Frame</t>
@@ -763,55 +629,1093 @@
     <t>Valve Gear</t>
   </si>
   <si>
-    <t>Valve Gear Case</t>
+    <t>Valve Gear?Case</t>
   </si>
   <si>
     <t>Vibaration Damper</t>
   </si>
   <si>
-    <t>Visual Flow Control For Cylind</t>
+    <t>Visual Flow Control For Cylinder Lubrication</t>
+  </si>
+  <si>
+    <t>Cooling Water Pump</t>
+  </si>
+  <si>
+    <t>Exhaust Piping (L = Left, R = Right)</t>
+  </si>
+  <si>
+    <t>Bolts / Mechanical Consumables</t>
+  </si>
+  <si>
+    <t>Camshaft &amp; Camshaft Bearing</t>
+  </si>
+  <si>
+    <t>Chemicals / Oil</t>
+  </si>
+  <si>
+    <t>Control Rod</t>
+  </si>
+  <si>
+    <t>Crankshaft, Balance Weight, Flywheel &amp; Main Bearing</t>
+  </si>
+  <si>
+    <t>Cylinder Head Cover</t>
+  </si>
+  <si>
+    <t>Electrical Consumables, Instrumentations &amp; Controls</t>
+  </si>
+  <si>
+    <t>Engine Frame Safety Valve</t>
+  </si>
+  <si>
+    <t>Engine Frame Side &amp; Blind Cover</t>
+  </si>
+  <si>
+    <t>Exhaust Manifold (8Dk,Front Turbocharger,Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Exhaust Manifold (Rear Turbo Charger,Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Exhaust Manifold Cover (8Dk, Front Turbocharger,Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Exhaust Manifold Cover (Rear Turbocharger,Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Fuel Oil Feed Pump (Type A)</t>
+  </si>
+  <si>
+    <t>Fuel Oil Feed Pump (Type B)</t>
+  </si>
+  <si>
+    <t>Fuel Oil Filter</t>
+  </si>
+  <si>
+    <t>Fuel Oil Injection Device</t>
+  </si>
+  <si>
+    <t>Fuel Oil Injection Device (Fuel Oil Nozzle Holder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel Oil Injection Pump </t>
+  </si>
+  <si>
+    <t>Fuel Oil Pump Driving Device (Type A)</t>
+  </si>
+  <si>
+    <t>Fuel Oil Pump Driving Device (Type B)</t>
+  </si>
+  <si>
+    <t>Fuel Oil Pump Tappet</t>
+  </si>
+  <si>
+    <t>Governor Fitting (Ear)</t>
+  </si>
+  <si>
+    <t>Governor Fitting (Rhd)</t>
+  </si>
+  <si>
+    <t>Governor Fitting (Ug)</t>
+  </si>
+  <si>
+    <t>Governor Link (Ear)</t>
+  </si>
+  <si>
+    <t>Governor Link (Rhd)</t>
+  </si>
+  <si>
+    <t>Governor Link (Ug)</t>
+  </si>
+  <si>
+    <t>Heat Box</t>
+  </si>
+  <si>
+    <t>Idle Gear</t>
+  </si>
+  <si>
+    <t>Indicator &amp; Safety Valve</t>
+  </si>
+  <si>
+    <t>Intake Valve / Exhaust Valve</t>
+  </si>
+  <si>
+    <t>Intake, Exhaust, Tappet &amp; Push Rod</t>
+  </si>
+  <si>
+    <t>Oil Pan</t>
+  </si>
+  <si>
+    <t>Oil Pump Driving Gear</t>
+  </si>
+  <si>
+    <t>Operating Device</t>
+  </si>
+  <si>
+    <t>Piston &amp; Connecting Rod</t>
+  </si>
+  <si>
+    <t>Ppe</t>
+  </si>
+  <si>
+    <t>Pumps &amp; Motors</t>
+  </si>
+  <si>
+    <t>Rocker Arm</t>
+  </si>
+  <si>
+    <t>Safety Plug, Starting Air Pipe</t>
+  </si>
+  <si>
+    <t>Spare Parts For Air Compressor (Espholin H6S Series)</t>
+  </si>
+  <si>
+    <t>Spare Parts For Hfo Purifier</t>
+  </si>
+  <si>
+    <t>Spare Parts For Hydraulic Jack</t>
+  </si>
+  <si>
+    <t>Spare Parts For L.O. Separator</t>
+  </si>
+  <si>
+    <t>Spare Parts For Lube Oil Purifier</t>
+  </si>
+  <si>
+    <t>Spare Parts For Turbo Charger</t>
+  </si>
+  <si>
+    <t>Spare Parts From Royal Cargo</t>
+  </si>
+  <si>
+    <t>Starting Air Operation Valve Fitting</t>
+  </si>
+  <si>
+    <t>Starting Air Rotary Valve</t>
+  </si>
+  <si>
+    <t>Starting Air Valve</t>
+  </si>
+  <si>
+    <t>Starting Air Valve &amp; Starting Air Control Valve</t>
+  </si>
+  <si>
+    <t>Starting Air Valve Fitting</t>
+  </si>
+  <si>
+    <t>Turbo Charger (Tps), Aircooler Fitting (8Dk Rear Turbocharger, Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Turbo Charger, Aircooler Fitting (8Dk Front Turbocharger, Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Turbo Charger, Aircooler Fitting (8Dk Rear Turbocharger, Gas Inlet 1Entry)</t>
+  </si>
+  <si>
+    <t>Injection Pump Control Gear With Ug 40 L Governor On Left Hand</t>
+  </si>
+  <si>
+    <t>Adjustable Injection Pump Control Gear For Ug 40L Governor On Right Hand</t>
+  </si>
+  <si>
+    <t>Air Cooler</t>
+  </si>
+  <si>
+    <t>Air Cooler Support- To Timing Gear- Non Reversible Engine</t>
+  </si>
+  <si>
+    <t>Air Intake Manifold (Complete) T.S. On Timing Gear End</t>
+  </si>
+  <si>
+    <t>Anti Vibration Damper For Incorporated Bearing Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxilliaries </t>
+  </si>
+  <si>
+    <t>Auxilliary Stopping And Starting Gear</t>
+  </si>
+  <si>
+    <t>Barring Gear-Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>Battery Fitting</t>
+  </si>
+  <si>
+    <t>Bipolar Contact Fitting</t>
+  </si>
+  <si>
+    <t>Camshaft Casing Inspection Doors (Left Hand Engine)</t>
+  </si>
+  <si>
+    <t>Camshaft Casing Inspection Doors (Right Hand Engine)</t>
+  </si>
+  <si>
+    <t>Camshaft Driving Gear Casing (Left Hand Governor)</t>
+  </si>
+  <si>
+    <t>Camshaft Driving Gear Casing (Right Hand Governor)</t>
+  </si>
+  <si>
+    <t>Camshaft Left Hand-Non Reversible</t>
+  </si>
+  <si>
+    <t>Camshaft Right Hand-Non Reversible</t>
+  </si>
+  <si>
+    <t>Camshaft Thrust Bearing</t>
+  </si>
+  <si>
+    <t>Cams-Non Reversable Engine-Clockwise Rotation</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Compressed Air Pipes - Tb On Opposite End To Timing Gear- Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Compressed Air Pipes (Left Hand Engine)</t>
+  </si>
+  <si>
+    <t>Compressed Air Pipes-Tb On Opposite End To Timing Gear-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Computer Accessories</t>
+  </si>
+  <si>
+    <t>Comrpessed Air Pipes (Right Hand Engine)</t>
+  </si>
+  <si>
+    <t>Connecting Rod (Drop Forged)</t>
+  </si>
+  <si>
+    <t>Consumables ( E &amp; Ic )</t>
+  </si>
+  <si>
+    <t>Consumables ( Maintenance )</t>
+  </si>
+  <si>
+    <t>Control Linkage - Trust</t>
+  </si>
+  <si>
+    <t>Cooling Tower</t>
+  </si>
+  <si>
+    <t>Cooling Water Pipes</t>
+  </si>
+  <si>
+    <t>Cooling Water Pipes. Water Inlet Pipe.</t>
+  </si>
+  <si>
+    <t>Coupling Oil Seal</t>
+  </si>
+  <si>
+    <t>Cylinder Valve Housing/Rocker Arm Cover</t>
+  </si>
+  <si>
+    <t>Distillation Kit -Lube Oil</t>
+  </si>
+  <si>
+    <t>Electric Control Of Barring Gear - Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Electrical Control Of Bearing Gear-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Exhaust Manifold Insulating Lagging</t>
+  </si>
+  <si>
+    <t>Exhaust Valve (Left)</t>
+  </si>
+  <si>
+    <t>Exhaust Valve (Right)</t>
+  </si>
+  <si>
+    <t>External Camshaft Bearing</t>
+  </si>
+  <si>
+    <t>External Thrust Bearing</t>
+  </si>
+  <si>
+    <t>Forklift Accessories</t>
+  </si>
+  <si>
+    <t>Fuel Feed Pipe-Fuel Setting-Timing Gear End</t>
+  </si>
+  <si>
+    <t>Fuel Injection Discharge Pipes</t>
+  </si>
+  <si>
+    <t>Fuel Injector (0.65Mm Dia)</t>
+  </si>
+  <si>
+    <t>General Hardware</t>
+  </si>
+  <si>
+    <t>Generator (Cummins)</t>
+  </si>
+  <si>
+    <t>Governor And Tachometer Drive-Without Receiver</t>
+  </si>
+  <si>
+    <t>Heavy Fuel Pipes-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Heavy Fuel Pipes-Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Injection Pump</t>
+  </si>
+  <si>
+    <t>Injection Pump, Oparating Gear And Camshaft Bearing</t>
+  </si>
+  <si>
+    <t>Injector Cooling Water Pipes With Separate Module - Tb On Opposite End To Timing Gear</t>
+  </si>
+  <si>
+    <t>Injector Cooling Water Pipes With Separate Module- T.B On Opposite End To Timing Gear</t>
+  </si>
+  <si>
+    <t>Inlet Valve</t>
+  </si>
+  <si>
+    <t>Inspection Door With Safety Valve 'Hoerbiger'</t>
+  </si>
+  <si>
+    <t>Inspection Door Without Safety Valve</t>
+  </si>
+  <si>
+    <t>Intake Connection Between Air Coller And Engine - Tb On Opposite End To Timing</t>
+  </si>
+  <si>
+    <t>Intake Connection Between Air Cooler And Engine-Tb On Opposite End To Timing Gear Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Intake Connection Between Tb And Air Cooler - Tb On Opposite End To Timing Gear</t>
+  </si>
+  <si>
+    <t>Intake Connection Between Tb And Air Cooler-Tb On Opposite End To Timing Gear</t>
+  </si>
+  <si>
+    <t>Items For Installation Of Easygen</t>
+  </si>
+  <si>
+    <t>Items For Installation Of Sel751A Relay</t>
+  </si>
+  <si>
+    <t>Jacket Water Cooler</t>
+  </si>
+  <si>
+    <t>Lube Oil Cooler</t>
+  </si>
+  <si>
+    <t>Lubricating Oil Pipes-Reversible Marine Engines-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Lubricating Oil Pipes-Revesible Marine Engines-Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Main Generator</t>
+  </si>
+  <si>
+    <t>Motor Controls And Protection</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Oil Vent -  Fitting With External Evacuation</t>
+  </si>
+  <si>
+    <t>Over Speed Safety Device</t>
+  </si>
+  <si>
+    <t>Personal Protective Equipment (Ppe)</t>
+  </si>
+  <si>
+    <t>Separate Valve Gear Lubricating Oil System (With Separate Module) Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Separate Valve Gear Lubrication Oil System (With Separate Module) Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Starting Air Distributor (Reversible Engine And Non Reversible Engine)</t>
+  </si>
+  <si>
+    <t>Starting Air Main Valve Without Reducing Valve With Manual Control-Engine With Pulse-Converter</t>
+  </si>
+  <si>
+    <t>Station Batteries</t>
+  </si>
+  <si>
+    <t>Supplementary Bearing On Camshaft-Right Hand Non Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switchboard Panel </t>
+  </si>
+  <si>
+    <t>Switchgear</t>
+  </si>
+  <si>
+    <t>T.B. Cleaning Circuit-Opposite End To Timing Gear-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>T.B. Cooling Water Pipes Bbc T.B. Vtr 400 On Opposite End To Timing Gear</t>
+  </si>
+  <si>
+    <t>Tb Cleaning Circuit-Opposite End To Timing Gear-Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Timing Gear</t>
+  </si>
+  <si>
+    <t>Turbo-Blower Support- Fitted On Opposite End To Timing Gear-Left Hand Engine</t>
+  </si>
+  <si>
+    <t>Turbo-Blower Support-Fitted On Opposite End To Timing Gear-Right Hand Engine</t>
+  </si>
+  <si>
+    <t>Valve Command-Lower Part-Intake Rockerarm With Separate Lubrication Type</t>
+  </si>
+  <si>
+    <t>Valve Gear-Upper Part (Rocker Arm)</t>
+  </si>
+  <si>
+    <t>Water Manifolds</t>
+  </si>
+  <si>
+    <t>Woodward Governor Ug 40 L</t>
+  </si>
+  <si>
+    <t>INSPECTION DOOR WITH SAFETY VALVE HOERBIGER</t>
+  </si>
+  <si>
+    <t>INJECTION PUMP CONTROL GEAR WITH UG 40 L GOVERNOR ON LEFT HAND</t>
+  </si>
+  <si>
+    <t>EXHAUST MANIFOLD</t>
+  </si>
+  <si>
+    <t>LUBE OIL Main Pump</t>
+  </si>
+  <si>
+    <t>BOLL &amp; KIRCH</t>
+  </si>
+  <si>
+    <t>FROM MCI CAVITE</t>
+  </si>
+  <si>
+    <t>LUBE OIL PURIFIER (MAPX 207)</t>
+  </si>
+  <si>
+    <t>LUBE OIL PURIFIER  (LOPX 705)</t>
+  </si>
+  <si>
+    <t>FUEL OIL PURIFIER (MAPX 309)</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX510</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX511</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX512</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX513</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX514</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX515</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX516</t>
+  </si>
+  <si>
+    <t>HFO PURIFIER WHPX517</t>
+  </si>
+  <si>
+    <t>JACKET WATER PUMP</t>
+  </si>
+  <si>
+    <t>INJECTOR COOLING PUMP</t>
+  </si>
+  <si>
+    <t>AIR COMPRESSOR 1&amp;2 (15T2)</t>
+  </si>
+  <si>
+    <t>AIR COMPRESSOR #3 (SS10)</t>
+  </si>
+  <si>
+    <t>Storage Tank</t>
+  </si>
+  <si>
+    <t>Deep well</t>
   </si>
   <si>
     <t>Location Name</t>
   </si>
   <si>
-    <t>CABINET</t>
-  </si>
-  <si>
-    <t>Chem - Stg</t>
-  </si>
-  <si>
-    <t>WH - Bldg.</t>
-  </si>
-  <si>
-    <t>WH - Rm1</t>
-  </si>
-  <si>
-    <t>WH - Rm2</t>
-  </si>
-  <si>
-    <t>WH - Rm3</t>
-  </si>
-  <si>
-    <t>WH - Extn</t>
-  </si>
-  <si>
-    <t>WH - Extn A</t>
-  </si>
-  <si>
-    <t>WH - Extn B</t>
-  </si>
-  <si>
-    <t>WH - Sec 1</t>
-  </si>
-  <si>
-    <t>WH - Sec 2</t>
-  </si>
-  <si>
-    <t>WH - Sec 3</t>
-  </si>
-  <si>
-    <t>WH - Sec 4</t>
+    <t>beside CPGC WH</t>
+  </si>
+  <si>
+    <t>Beside MRF</t>
+  </si>
+  <si>
+    <t>Container Van</t>
+  </si>
+  <si>
+    <t>CPGC Bldg</t>
+  </si>
+  <si>
+    <t>CPGC Cabinet</t>
+  </si>
+  <si>
+    <t>CPGC grounfloor</t>
+  </si>
+  <si>
+    <t>CPGC WH</t>
+  </si>
+  <si>
+    <t>CPGC WH/Door 1</t>
+  </si>
+  <si>
+    <t>EIC Room</t>
+  </si>
+  <si>
+    <t>ER1</t>
+  </si>
+  <si>
+    <t>ER2</t>
+  </si>
+  <si>
+    <t>ER3</t>
+  </si>
+  <si>
+    <t>ER4</t>
+  </si>
+  <si>
+    <t>ER5</t>
+  </si>
+  <si>
+    <t>ER6</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>MR2-F1</t>
+  </si>
+  <si>
+    <t>MR2-F2</t>
+  </si>
+  <si>
+    <t>MR2-F3</t>
+  </si>
+  <si>
+    <t>MR2-F4</t>
+  </si>
+  <si>
+    <t>MR2-F5</t>
+  </si>
+  <si>
+    <t>MR2-F6</t>
+  </si>
+  <si>
+    <t>MR2-F7</t>
+  </si>
+  <si>
+    <t>MR2-F8</t>
+  </si>
+  <si>
+    <t>MR3</t>
+  </si>
+  <si>
+    <t>MR3-T18</t>
+  </si>
+  <si>
+    <t>MR3-T19</t>
+  </si>
+  <si>
+    <t>MR3-T23</t>
+  </si>
+  <si>
+    <t>MR3-T24</t>
+  </si>
+  <si>
+    <t>MR3-T25</t>
+  </si>
+  <si>
+    <t>MR3-T26</t>
+  </si>
+  <si>
+    <t>MR3-T27</t>
+  </si>
+  <si>
+    <t>MR3-T28</t>
+  </si>
+  <si>
+    <t>MR3-T29</t>
+  </si>
+  <si>
+    <t>MR3-T30</t>
+  </si>
+  <si>
+    <t>MR3-T31</t>
+  </si>
+  <si>
+    <t>MR3-T32</t>
+  </si>
+  <si>
+    <t>MR3-T33</t>
+  </si>
+  <si>
+    <t>MR3-T34</t>
+  </si>
+  <si>
+    <t>MR3-T35</t>
+  </si>
+  <si>
+    <t>MR3-T36</t>
+  </si>
+  <si>
+    <t>MR3-T37</t>
+  </si>
+  <si>
+    <t>MR3-T38</t>
+  </si>
+  <si>
+    <t>MR3-T39</t>
+  </si>
+  <si>
+    <t>MR3-T40</t>
+  </si>
+  <si>
+    <t>MR4-F1</t>
+  </si>
+  <si>
+    <t>MR4-F10</t>
+  </si>
+  <si>
+    <t>MR4-F11</t>
+  </si>
+  <si>
+    <t>MR4-F12</t>
+  </si>
+  <si>
+    <t>MR4-F13</t>
+  </si>
+  <si>
+    <t>MR4-F14</t>
+  </si>
+  <si>
+    <t>MR4-F15</t>
+  </si>
+  <si>
+    <t>MR4-F16</t>
+  </si>
+  <si>
+    <t>MR4-F17</t>
+  </si>
+  <si>
+    <t>MR4-F18</t>
+  </si>
+  <si>
+    <t>MR4-F19</t>
+  </si>
+  <si>
+    <t>MR4-F2</t>
+  </si>
+  <si>
+    <t>MR4-F20</t>
+  </si>
+  <si>
+    <t>MR4-F21</t>
+  </si>
+  <si>
+    <t>MR4-F22</t>
+  </si>
+  <si>
+    <t>MR4-F23</t>
+  </si>
+  <si>
+    <t>MR4-F24</t>
+  </si>
+  <si>
+    <t>MR4-F25</t>
+  </si>
+  <si>
+    <t>MR4-F26</t>
+  </si>
+  <si>
+    <t>MR4-F27</t>
+  </si>
+  <si>
+    <t>MR4-F28</t>
+  </si>
+  <si>
+    <t>MR4-F29</t>
+  </si>
+  <si>
+    <t>MR4-F3</t>
+  </si>
+  <si>
+    <t>MR4-F30</t>
+  </si>
+  <si>
+    <t>MR4-F31</t>
+  </si>
+  <si>
+    <t>MR4-F32</t>
+  </si>
+  <si>
+    <t>MR4-F33</t>
+  </si>
+  <si>
+    <t>MR4-F34</t>
+  </si>
+  <si>
+    <t>MR4-F35</t>
+  </si>
+  <si>
+    <t>MR4-F36</t>
+  </si>
+  <si>
+    <t>MR4-F37</t>
+  </si>
+  <si>
+    <t>MR4-F38</t>
+  </si>
+  <si>
+    <t>MR4-F39</t>
+  </si>
+  <si>
+    <t>MR4-F4</t>
+  </si>
+  <si>
+    <t>MR4-F40</t>
+  </si>
+  <si>
+    <t>MR4-F41</t>
+  </si>
+  <si>
+    <t>MR4-F42</t>
+  </si>
+  <si>
+    <t>MR4-F43</t>
+  </si>
+  <si>
+    <t>MR4-F44</t>
+  </si>
+  <si>
+    <t>MR4-F45</t>
+  </si>
+  <si>
+    <t>MR4-F46</t>
+  </si>
+  <si>
+    <t>MR4-F47</t>
+  </si>
+  <si>
+    <t>MR4-F48</t>
+  </si>
+  <si>
+    <t>MR4-F49</t>
+  </si>
+  <si>
+    <t>MR4-F5</t>
+  </si>
+  <si>
+    <t>MR4-F50</t>
+  </si>
+  <si>
+    <t>MR4-F51</t>
+  </si>
+  <si>
+    <t>MR4-F52</t>
+  </si>
+  <si>
+    <t>MR4-F53</t>
+  </si>
+  <si>
+    <t>MR4-F54</t>
+  </si>
+  <si>
+    <t>MR4-F55</t>
+  </si>
+  <si>
+    <t>MR4-F56</t>
+  </si>
+  <si>
+    <t>MR4-F57</t>
+  </si>
+  <si>
+    <t>MR4-F58</t>
+  </si>
+  <si>
+    <t>MR4-F59</t>
+  </si>
+  <si>
+    <t>MR4-F6</t>
+  </si>
+  <si>
+    <t>MR4-F60</t>
+  </si>
+  <si>
+    <t>MR4-F61</t>
+  </si>
+  <si>
+    <t>MR4-F62</t>
+  </si>
+  <si>
+    <t>MR4-F63</t>
+  </si>
+  <si>
+    <t>MR4-F64</t>
+  </si>
+  <si>
+    <t>MR4-F7</t>
+  </si>
+  <si>
+    <t>MR4-F8</t>
+  </si>
+  <si>
+    <t>MR4-F9</t>
+  </si>
+  <si>
+    <t>MR4-T1</t>
+  </si>
+  <si>
+    <t>MR4-T10</t>
+  </si>
+  <si>
+    <t>MR4-T11</t>
+  </si>
+  <si>
+    <t>MR4-T12</t>
+  </si>
+  <si>
+    <t>MR4-T13</t>
+  </si>
+  <si>
+    <t>MR4-T14</t>
+  </si>
+  <si>
+    <t>MR4-T15</t>
+  </si>
+  <si>
+    <t>MR4-T16</t>
+  </si>
+  <si>
+    <t>MR4-T17</t>
+  </si>
+  <si>
+    <t>MR4-T2</t>
+  </si>
+  <si>
+    <t>MR4-T20</t>
+  </si>
+  <si>
+    <t>MR4-T21</t>
+  </si>
+  <si>
+    <t>MR4-T22</t>
+  </si>
+  <si>
+    <t>MR4-T3</t>
+  </si>
+  <si>
+    <t>MR4-T4</t>
+  </si>
+  <si>
+    <t>MR4-T5</t>
+  </si>
+  <si>
+    <t>MR4-T6</t>
+  </si>
+  <si>
+    <t>MR4-T7</t>
+  </si>
+  <si>
+    <t>MR4-T8</t>
+  </si>
+  <si>
+    <t>MR4-T9</t>
+  </si>
+  <si>
+    <t>MR5</t>
+  </si>
+  <si>
+    <t>SIPC Bldg.</t>
+  </si>
+  <si>
+    <t>SIPC Tool R.</t>
+  </si>
+  <si>
+    <t>SIPC WH</t>
+  </si>
+  <si>
+    <t>WH Tool Room</t>
+  </si>
+  <si>
+    <t>At the back of metal rack</t>
+  </si>
+  <si>
+    <t>Beside cooling tower</t>
+  </si>
+  <si>
+    <t>Besides MRF</t>
+  </si>
+  <si>
+    <t>Beside whse tools</t>
+  </si>
+  <si>
+    <t>Consumable Rack 5E</t>
+  </si>
+  <si>
+    <t>Consumables Rack 5C</t>
+  </si>
+  <si>
+    <t>Consumables Rack 5A</t>
+  </si>
+  <si>
+    <t>Consumables Rack 5D</t>
+  </si>
+  <si>
+    <t>Consumables Rack 5E</t>
+  </si>
+  <si>
+    <t>Consumables Rack 5B</t>
+  </si>
+  <si>
+    <t>Container  Van</t>
+  </si>
+  <si>
+    <t>CPGC 2nd floor</t>
+  </si>
+  <si>
+    <t>CPGC Computer table</t>
+  </si>
+  <si>
+    <t>CPGC Ground floor</t>
+  </si>
+  <si>
+    <t>CPGC Ground floor &amp; 2nd floor</t>
+  </si>
+  <si>
+    <t>CPGC Warehouse</t>
+  </si>
+  <si>
+    <t>Distillation Kit  Rack 2B</t>
+  </si>
+  <si>
+    <t>Distillation Kit  Rack 2C</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3A</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3B</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3C</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3D</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3E</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 3F</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4A</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4B</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4C</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4D</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4E</t>
+  </si>
+  <si>
+    <t>Electrical Parts Rack 4F</t>
+  </si>
+  <si>
+    <t>for machining to Manila c/o Sir CLB w/ gatepass</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2F</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1B</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1C</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1D</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1E</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1F</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 1B &amp; 2F</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2A</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2B</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2C</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2D</t>
+  </si>
+  <si>
+    <t>Mechanical Parts Rack 2E</t>
+  </si>
+  <si>
+    <t>metal rack top</t>
+  </si>
+  <si>
+    <t>PPE Rack 1A</t>
+  </si>
+  <si>
+    <t>Rack 3F</t>
+  </si>
+  <si>
+    <t>Switch Gear Room</t>
+  </si>
+  <si>
+    <t>Top of Metal Rack</t>
+  </si>
+  <si>
+    <t>Top of Warehouse Rack</t>
+  </si>
+  <si>
+    <t>Warehouse Room</t>
   </si>
   <si>
     <t>Warehouse ID</t>
@@ -820,16 +1724,133 @@
     <t>Warehouse Name</t>
   </si>
   <si>
-    <t>CENPRI</t>
-  </si>
-  <si>
-    <t>PROGEN</t>
-  </si>
-  <si>
-    <t>CV Access Area Bay 1</t>
-  </si>
-  <si>
-    <t>CV Access Area Bay 2</t>
+    <t>SIPC Warehouse 1</t>
+  </si>
+  <si>
+    <t>CPGC Warehouse 2</t>
+  </si>
+  <si>
+    <t>UOM Name</t>
+  </si>
+  <si>
+    <t>bag/s</t>
+  </si>
+  <si>
+    <t>bar/s</t>
+  </si>
+  <si>
+    <t>bot/s</t>
+  </si>
+  <si>
+    <t>box/s</t>
+  </si>
+  <si>
+    <t>can/s</t>
+  </si>
+  <si>
+    <t>cart/s</t>
+  </si>
+  <si>
+    <t>cont/s</t>
+  </si>
+  <si>
+    <t>cu.m</t>
+  </si>
+  <si>
+    <t>cyl/s</t>
+  </si>
+  <si>
+    <t>drum/s</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>gal/s</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>lgth/s</t>
+  </si>
+  <si>
+    <t>ltr/s</t>
+  </si>
+  <si>
+    <t>mtr/s</t>
+  </si>
+  <si>
+    <t>pack/s</t>
+  </si>
+  <si>
+    <t>pad/s</t>
+  </si>
+  <si>
+    <t>pail/s</t>
+  </si>
+  <si>
+    <t>pair/s</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t>ream/s</t>
+  </si>
+  <si>
+    <t>roll/s</t>
+  </si>
+  <si>
+    <t>sack/s</t>
+  </si>
+  <si>
+    <t>set/s</t>
+  </si>
+  <si>
+    <t>sht/s</t>
+  </si>
+  <si>
+    <t>tab/s</t>
+  </si>
+  <si>
+    <t>tube/s</t>
+  </si>
+  <si>
+    <t>unit/s</t>
+  </si>
+  <si>
+    <t>grm/s</t>
+  </si>
+  <si>
+    <t>assy/s</t>
+  </si>
+  <si>
+    <t>lot/s</t>
+  </si>
+  <si>
+    <t>Kit/s</t>
+  </si>
+  <si>
+    <t>tank/s</t>
+  </si>
+  <si>
+    <t>yard/s</t>
+  </si>
+  <si>
+    <t>bundle/s</t>
+  </si>
+  <si>
+    <t>doz</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>lb/s</t>
+  </si>
+  <si>
+    <t>tl</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +2290,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1451,70 +2472,72 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="A19" s="4">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -1524,70 +2547,70 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -1598,7 +2621,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>68</v>
@@ -1607,7 +2630,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>69</v>
@@ -1618,7 +2641,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -1629,7 +2652,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -1640,7 +2663,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
@@ -1650,116 +2673,116 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="3">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>7</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>96</v>
@@ -1770,7 +2793,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -1781,7 +2804,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
@@ -1792,13 +2815,119 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +2951,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,511 +2964,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2988,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2376,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2384,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2392,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2400,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2408,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2416,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2424,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2432,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2440,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2448,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2456,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2464,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2472,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2480,7 +3105,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2488,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2496,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2504,7 +3129,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2512,7 +3137,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2520,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2528,7 +3153,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2536,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2544,7 +3169,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2552,7 +3177,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2560,7 +3185,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2568,7 +3193,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2576,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2584,7 +3209,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2592,7 +3217,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2600,7 +3225,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2608,7 +3233,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2616,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2624,7 +3249,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2632,7 +3257,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2640,7 +3265,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2648,7 +3273,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2656,7 +3281,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2664,7 +3289,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2672,7 +3297,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2680,7 +3305,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2688,7 +3313,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2696,7 +3321,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2704,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2712,7 +3337,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2720,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2728,7 +3353,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2736,7 +3361,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2744,7 +3369,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2752,7 +3377,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2760,7 +3385,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2768,7 +3393,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2776,7 +3401,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2784,7 +3409,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2792,7 +3417,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2800,7 +3425,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2808,7 +3433,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2816,7 +3441,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2824,7 +3449,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2832,7 +3457,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2840,7 +3465,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2848,7 +3473,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2856,7 +3481,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2864,7 +3489,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2872,7 +3497,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2880,7 +3505,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2888,7 +3513,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2896,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2904,7 +3529,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2912,7 +3537,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2920,7 +3545,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2928,7 +3553,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2936,7 +3561,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2944,7 +3569,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2952,7 +3577,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2960,7 +3585,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2968,7 +3593,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2976,7 +3601,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2984,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2992,7 +3617,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3000,7 +3625,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3008,7 +3633,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3016,7 +3641,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3024,7 +3649,2183 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>190</v>
+      </c>
+      <c r="B188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>192</v>
+      </c>
+      <c r="B190" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>196</v>
+      </c>
+      <c r="B194" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>198</v>
+      </c>
+      <c r="B196" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>200</v>
+      </c>
+      <c r="B198" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>202</v>
+      </c>
+      <c r="B200" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>204</v>
+      </c>
+      <c r="B202" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>208</v>
+      </c>
+      <c r="B206" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>210</v>
+      </c>
+      <c r="B208" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>212</v>
+      </c>
+      <c r="B210" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>226</v>
+      </c>
+      <c r="B224" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>233</v>
+      </c>
+      <c r="B231" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>240</v>
+      </c>
+      <c r="B238" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>241</v>
+      </c>
+      <c r="B239" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>242</v>
+      </c>
+      <c r="B240" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>244</v>
+      </c>
+      <c r="B242" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>245</v>
+      </c>
+      <c r="B243" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>246</v>
+      </c>
+      <c r="B244" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>256</v>
+      </c>
+      <c r="B254" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>257</v>
+      </c>
+      <c r="B255" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>258</v>
+      </c>
+      <c r="B256" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>259</v>
+      </c>
+      <c r="B257" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>260</v>
+      </c>
+      <c r="B258" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>261</v>
+      </c>
+      <c r="B259" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>262</v>
+      </c>
+      <c r="B260" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>263</v>
+      </c>
+      <c r="B261" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>264</v>
+      </c>
+      <c r="B262" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>265</v>
+      </c>
+      <c r="B263" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>266</v>
+      </c>
+      <c r="B264" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>267</v>
+      </c>
+      <c r="B265" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>268</v>
+      </c>
+      <c r="B266" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>269</v>
+      </c>
+      <c r="B267" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>270</v>
+      </c>
+      <c r="B268" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>272</v>
+      </c>
+      <c r="B270" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>273</v>
+      </c>
+      <c r="B271" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>274</v>
+      </c>
+      <c r="B272" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>275</v>
+      </c>
+      <c r="B273" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>276</v>
+      </c>
+      <c r="B274" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>284</v>
+      </c>
+      <c r="B282" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>285</v>
+      </c>
+      <c r="B283" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>286</v>
+      </c>
+      <c r="B284" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>289</v>
+      </c>
+      <c r="B287" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>290</v>
+      </c>
+      <c r="B288" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>293</v>
+      </c>
+      <c r="B291" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>295</v>
+      </c>
+      <c r="B293" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>296</v>
+      </c>
+      <c r="B294" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>297</v>
+      </c>
+      <c r="B295" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>299</v>
+      </c>
+      <c r="B297" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>305</v>
+      </c>
+      <c r="B303" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>307</v>
+      </c>
+      <c r="B305" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>310</v>
+      </c>
+      <c r="B308" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>311</v>
+      </c>
+      <c r="B309" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>312</v>
+      </c>
+      <c r="B310" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>314</v>
+      </c>
+      <c r="B312" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>315</v>
+      </c>
+      <c r="B313" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>316</v>
+      </c>
+      <c r="B314" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>318</v>
+      </c>
+      <c r="B316" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>319</v>
+      </c>
+      <c r="B317" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>320</v>
+      </c>
+      <c r="B318" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>322</v>
+      </c>
+      <c r="B320" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>323</v>
+      </c>
+      <c r="B321" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>324</v>
+      </c>
+      <c r="B322" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>325</v>
+      </c>
+      <c r="B323" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>326</v>
+      </c>
+      <c r="B324" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>327</v>
+      </c>
+      <c r="B325" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>328</v>
+      </c>
+      <c r="B326" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>329</v>
+      </c>
+      <c r="B327" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>330</v>
+      </c>
+      <c r="B328" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>331</v>
+      </c>
+      <c r="B329" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>332</v>
+      </c>
+      <c r="B330" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>333</v>
+      </c>
+      <c r="B331" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>334</v>
+      </c>
+      <c r="B332" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>335</v>
+      </c>
+      <c r="B333" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>336</v>
+      </c>
+      <c r="B334" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>337</v>
+      </c>
+      <c r="B335" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>338</v>
+      </c>
+      <c r="B336" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>339</v>
+      </c>
+      <c r="B337" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>340</v>
+      </c>
+      <c r="B338" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>341</v>
+      </c>
+      <c r="B339" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>342</v>
+      </c>
+      <c r="B340" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>343</v>
+      </c>
+      <c r="B341" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>344</v>
+      </c>
+      <c r="B342" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>345</v>
+      </c>
+      <c r="B343" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>346</v>
+      </c>
+      <c r="B344" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>347</v>
+      </c>
+      <c r="B345" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>348</v>
+      </c>
+      <c r="B346" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>349</v>
+      </c>
+      <c r="B347" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>350</v>
+      </c>
+      <c r="B348" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>351</v>
+      </c>
+      <c r="B349" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>352</v>
+      </c>
+      <c r="B350" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>353</v>
+      </c>
+      <c r="B351" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>354</v>
+      </c>
+      <c r="B352" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>355</v>
+      </c>
+      <c r="B353" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>356</v>
+      </c>
+      <c r="B354" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3048,7 +5849,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3061,7 +5862,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3069,103 +5870,1495 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
-        <v>263</v>
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +7382,60 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3199,10 +7445,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3210,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3218,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3226,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3234,7 +7480,295 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
